--- a/CheckList_Forms.xlsx
+++ b/CheckList_Forms.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9FB5E6-F846-4B2E-BF72-5BDA6CEAD975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5BDA65C-1945-402A-82BE-3C44424F4516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="1665" windowWidth="16485" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="465" yWindow="2010" windowWidth="16485" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -209,6 +209,102 @@
   </si>
   <si>
     <t>Чек-лист проверки поля "Email"</t>
+  </si>
+  <si>
+    <t>При нажатии на форму появляется окантовка рамки</t>
+  </si>
+  <si>
+    <t>Появляется окантовка рамки</t>
+  </si>
+  <si>
+    <t>Блок email назван верно</t>
+  </si>
+  <si>
+    <t>Блок email назван без ошибок</t>
+  </si>
+  <si>
+    <t>Появляется ошибка о том, что введен некорректный адрес</t>
+  </si>
+  <si>
+    <t>Ввод не корректного префикса @mail/@gmail</t>
+  </si>
+  <si>
+    <t>Ввод в поле email 5 символов до @</t>
+  </si>
+  <si>
+    <t>Ввод в поле email 1 символа до @</t>
+  </si>
+  <si>
+    <t>Появляется сообщение о том, что введено малое количество символов</t>
+  </si>
+  <si>
+    <t>Ввод email цифрами</t>
+  </si>
+  <si>
+    <t>Специальные запрещенные символы до @</t>
+  </si>
+  <si>
+    <t>Специальные разрешенные символы до @</t>
+  </si>
+  <si>
+    <t>12@mail.ru</t>
+  </si>
+  <si>
+    <t>1@mail.ru</t>
+  </si>
+  <si>
+    <t>5gfdg@mail.ru</t>
+  </si>
+  <si>
+    <t>1213!~@mail.ru</t>
+  </si>
+  <si>
+    <t>12-@mail.ru</t>
+  </si>
+  <si>
+    <t>Поле Email обязательно для заполнения</t>
+  </si>
+  <si>
+    <t>При регистрации появляется сообщение, что поле обязательно</t>
+  </si>
+  <si>
+    <t>Сообщение отсутствует</t>
+  </si>
+  <si>
+    <t>Ввод в поле после . 1 символ</t>
+  </si>
+  <si>
+    <t>12a@mail.c</t>
+  </si>
+  <si>
+    <t>12a@mail.ru</t>
+  </si>
+  <si>
+    <t>Ввод в поле после . 2 символа</t>
+  </si>
+  <si>
+    <t>Специальные запрещенные символы после точки</t>
+  </si>
+  <si>
+    <t>Специальные разрешенные символы после точки</t>
+  </si>
+  <si>
+    <t>1213@mail.ru!~</t>
+  </si>
+  <si>
+    <t>12-@mail.__ru</t>
+  </si>
+  <si>
+    <t>Чек-лист проверки поля "Password"</t>
+  </si>
+  <si>
+    <t>В плейхолдере отображение email - корректно</t>
+  </si>
+  <si>
+    <t>Отображается "Your email address."</t>
+  </si>
+  <si>
+    <t>Отображается "Your email adress?, присутствует грамматическая ошибка</t>
   </si>
 </sst>
 </file>
@@ -280,14 +376,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -309,6 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -592,226 +689,226 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
     <col min="4" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -819,22 +916,22 @@
       <c r="A14">
         <v>9</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -842,19 +939,19 @@
       <c r="A15">
         <v>10</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -862,13 +959,13 @@
       <c r="A16">
         <v>11</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -876,19 +973,19 @@
       <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="F17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -896,22 +993,22 @@
       <c r="A18">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C18">
         <v>12334</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -919,50 +1016,50 @@
       <c r="A19">
         <v>14</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" s="5" t="s">
+      <c r="F19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -970,19 +1067,19 @@
       <c r="A22">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="F22" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -990,19 +1087,19 @@
       <c r="A23">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="5" t="s">
+      <c r="E23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1010,13 +1107,13 @@
       <c r="A24">
         <v>18</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1024,22 +1121,22 @@
       <c r="A25">
         <v>19</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" s="5" t="s">
+      <c r="E25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1047,20 +1144,20 @@
       <c r="A26">
         <v>20</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="3"/>
+      <c r="D26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="5" t="s">
+      <c r="E26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1068,41 +1165,41 @@
       <c r="A27">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="3"/>
+      <c r="F27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="E28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1110,13 +1207,13 @@
       <c r="A29">
         <v>23</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1124,19 +1221,19 @@
       <c r="A30">
         <v>24</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="F30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1144,175 +1241,388 @@
       <c r="A31">
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>26</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="B32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>27</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>28</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>29</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>33</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>34</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>36</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>37</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>38</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>48</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A49:G49"/>
     <mergeCell ref="A33:G33"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:G4"/>
@@ -1322,8 +1632,17 @@
   <hyperlinks>
     <hyperlink ref="C13" r:id="rId1" xr:uid="{FCC2D180-E25B-4B07-8741-04E77130A066}"/>
     <hyperlink ref="C28" r:id="rId2" xr:uid="{F7E4260B-BA0F-4EC9-A481-D885F62FB727}"/>
+    <hyperlink ref="C38" r:id="rId3" xr:uid="{79186998-497B-4E6A-9435-A0415753EA96}"/>
+    <hyperlink ref="C39" r:id="rId4" xr:uid="{13069223-9C53-40FC-A6B3-9CFA8136F607}"/>
+    <hyperlink ref="C40" r:id="rId5" xr:uid="{9AD1C30B-B8C5-4B1E-86FA-EBCA3DB3C581}"/>
+    <hyperlink ref="C41" r:id="rId6" xr:uid="{7ADD10C0-1C8A-411D-B8ED-81022D93E2E1}"/>
+    <hyperlink ref="C42" r:id="rId7" xr:uid="{73976E03-46EB-422A-A3BE-84FF93C73919}"/>
+    <hyperlink ref="C44" r:id="rId8" xr:uid="{08C3FB3A-D4B5-4062-9BA1-A78B4CA8F797}"/>
+    <hyperlink ref="C45" r:id="rId9" xr:uid="{9217FC10-73DE-4C3A-A43D-DA7C7CDEB3F5}"/>
+    <hyperlink ref="C46" r:id="rId10" xr:uid="{C61E133D-3726-4DA6-98EC-9134D98662EF}"/>
+    <hyperlink ref="C47" r:id="rId11" xr:uid="{ECA85351-710F-4929-8A16-557504232132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>